--- a/LGC_Motiv_task/checks_experiment.xlsx
+++ b/LGC_Motiv_task/checks_experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loco\Documents\GitHub\LGC_motiv\LGC_Motiv_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C75A9-776F-40D9-916E-A1266FF28491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22691BC5-DC66-43E5-9D88-FE740F076256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B257E7B9-80C1-4A44-B9F3-0153EBF325BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B257E7B9-80C1-4A44-B9F3-0153EBF325BC}"/>
   </bookViews>
   <sheets>
     <sheet name="MRS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
   <si>
     <t>done?</t>
   </si>
@@ -1896,7 +1896,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1904,11 +1904,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,6 +1932,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2233,282 +2257,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD33314-0B07-4781-B0C3-01C5EDB5E943}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="76.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:2" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:2" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2724,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CA117B-9A1F-46BF-B6DF-010D4CD84C56}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/LGC_Motiv_task/checks_experiment.xlsx
+++ b/LGC_Motiv_task/checks_experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22691BC5-DC66-43E5-9D88-FE740F076256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7049024-5412-477C-8604-77CDFD6B991F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B257E7B9-80C1-4A44-B9F3-0153EBF325BC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
   <si>
     <t>done?</t>
   </si>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD33314-0B07-4781-B0C3-01C5EDB5E943}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2535,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F660E1C5-B885-47D1-8D18-DB92C92EB110}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2547,80 +2547,77 @@
     <col min="2" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2745,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CA117B-9A1F-46BF-B6DF-010D4CD84C56}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
